--- a/medicine/Psychotrope/Café_de_Paris_(Monte-Carlo)/Café_de_Paris_(Monte-Carlo).xlsx
+++ b/medicine/Psychotrope/Café_de_Paris_(Monte-Carlo)/Café_de_Paris_(Monte-Carlo).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_Paris_(Monte-Carlo)</t>
+          <t>Café_de_Paris_(Monte-Carlo)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Café de Paris de Monte-Carlo est un café restaurant mythique style Belle Époque années 1900 et un casino, voisin du Casino de Monte-Carlo, sur la place du Casino, face à l'Hôtel de Paris.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_Paris_(Monte-Carlo)</t>
+          <t>Café_de_Paris_(Monte-Carlo)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fondé en 1868, en même temps que Monte-Carlo, avec son Casino et l'Hôtel de Paris par François Blanc et le prince Charles III de Monaco, il est baptisé à l'origine « Café Divan ». Il est métamorphosé plusieurs fois jusque dans les années 1930, puis entièrement rénové en 1988 en style Belle Époque années 1900 à l'image des vieux bistrots parisiens.
 Il offre de vastes terrasses modulables avec orchestre et vue imprenable sur le Casino de Monte-Carlo et l'Hôtel de Paris et son spectacle quotidien de voitures de prestige, avec le salon Bellevue de 340 m2 au premier étage.
